--- a/input/images/tables/addl_uscdi_refs.xlsx
+++ b/input/images/tables/addl_uscdi_refs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="addl_uscdi_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="addl_uscdi_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1032,6 +1032,6 @@
       <c r="C55" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/addl_uscdi_refs.xlsx
+++ b/input/images/tables/addl_uscdi_refs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="addl_uscdi_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="addl_uscdi_refs.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -574,7 +574,11 @@
           <t>US Core CarePlan Profile</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>US Core Condition Problems and Health Concerns Profile</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -626,7 +630,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+          <t>US Core Device Profile</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -637,7 +641,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>US Core DiagnosticReport Profile for Report and Note Exchange</t>
+          <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -648,7 +652,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>US Core DocumentReference Profile</t>
+          <t>US Core DiagnosticReport Profile for Report and Note Exchange</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -659,7 +663,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>US Core Encounter Profile</t>
+          <t>US Core DocumentReference Profile</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -670,7 +674,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>US Core Goal Profile</t>
+          <t>US Core Encounter Profile</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -681,7 +685,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>US Core Head Circumference Profile</t>
+          <t>US Core FamilyMemberHistory Profile</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -692,7 +696,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>US Core Heart Rate Profile</t>
+          <t>US Core Goal Profile</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -703,7 +707,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>US Core Immunization Profile</t>
+          <t>US Core Head Circumference Profile</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -714,7 +718,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core Heart Rate Profile</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -725,7 +729,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>US Core Location Profile</t>
+          <t>US Core Immunization Profile</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -736,7 +740,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>US Core Medication Profile</t>
+          <t>US Core Location Profile</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -747,7 +751,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>US Core MedicationDispense Profile</t>
+          <t>US Core Medication Profile</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -758,7 +762,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>US Core MedicationRequest Profile</t>
+          <t>US Core MedicationDispense Profile</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -769,7 +773,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>US Core Observation ADI Documentation Profile</t>
+          <t>US Core MedicationRequest Profile</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -780,7 +784,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>US Core Observation Clinical Result Profile</t>
+          <t>US Core Observation ADI Documentation Profile</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -791,7 +795,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>US Core Laboratory Result Observation Profile</t>
+          <t>US Core Observation Clinical Result Profile</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -802,7 +806,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>US Core Observation Occupation Profile</t>
+          <t>US Core Laboratory Result Observation Profile</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -813,7 +817,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Intent Profile</t>
+          <t>US Core Observation Occupation Profile</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -824,7 +828,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>US Core Observation Pregnancy Status Profile</t>
+          <t>US Core Observation Pregnancy Intent Profile</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -835,7 +839,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>US Core Observation Screening Assessment Profile</t>
+          <t>US Core Observation Pregnancy Status Profile</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -846,7 +850,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>US Core Observation Sexual Orientation Profile</t>
+          <t>US Core Observation Screening Assessment Profile</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -857,7 +861,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>US Core Organization Profile</t>
+          <t>US Core Observation Sexual Orientation Profile</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -868,7 +872,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>US Core Patient Profile</t>
+          <t>US Core Organization Profile</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -879,7 +883,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
+          <t>US Core Patient Profile</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -890,7 +894,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>US Core PractitionerRole Profile</t>
+          <t>US Core PMO ServiceRequest Profile</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -901,14 +905,10 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
           <t>US Core Practitioner Profile</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core PractitionerRole Profile</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -927,10 +927,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>US Core Pulse Oximetry Profile</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>US Core Procedure Profile</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -938,7 +942,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>US Core QuestionnaireResponse Profile</t>
+          <t>US Core Provenance Profile</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -949,7 +953,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Pulse Oximetry Profile</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -960,7 +964,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>US Core Respiratory Rate Profile</t>
+          <t>US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -971,7 +975,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -982,7 +986,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile</t>
+          <t>US Core Respiratory Rate Profile</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -993,7 +997,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1004,7 +1008,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Simple Observation Profile</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1015,7 +1019,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
+          <t>US Core Smoking Status Observation Profile</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1026,12 +1030,34 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>US Core Specimen Profile</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>US Core Treatment Intervention Preference Profile</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>US Core Vital Signs Profile</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/addl_uscdi_refs.xlsx
+++ b/input/images/tables/addl_uscdi_refs.xlsx
@@ -890,172 +890,161 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>US Core PMO ServiceRequest Profile</t>
+          <t>US Core Practitioner Profile</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>US Core Practitioner Profile</t>
+          <t>US Core PractitionerRole Profile</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>US Core PractitionerRole Profile</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>US Core Procedure Profile</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>US Core Practitioner Profile</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>US Core Procedure Profile</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>US Core Practitioner Profile</t>
-        </is>
-      </c>
+          <t>US Core Provenance Profile</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>US Core Provenance Profile</t>
+          <t>US Core Pulse Oximetry Profile</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>US Core Pulse Oximetry Profile</t>
+          <t>US Core QuestionnaireResponse Profile</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>US Core QuestionnaireResponse Profile</t>
+          <t>US Core RelatedPerson Profile</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US Core RelatedPerson Profile</t>
+          <t>US Core Respiratory Rate Profile</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>US Core Respiratory Rate Profile</t>
+          <t>US Core ServiceRequest Profile</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>US Core ServiceRequest Profile</t>
+          <t>US Core Simple Observation Profile</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>US Core Simple Observation Profile</t>
+          <t>US Core Smoking Status Observation Profile</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>US Core Smoking Status Observation Profile</t>
+          <t>US Core Specimen Profile</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>US Core Specimen Profile</t>
+          <t>US Core Treatment Intervention Preference Profile</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>US Core Treatment Intervention Preference Profile</t>
+          <t>US Core Vital Signs Profile</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>US Core Vital Signs Profile</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
